--- a/result/vwap_opt_dow#1/Summary_vwap_opt_dow#1.xlsx
+++ b/result/vwap_opt_dow#1/Summary_vwap_opt_dow#1.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,28 +518,28 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
       <c r="D3">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="F3">
         <v>250</v>
       </c>
       <c r="G3">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -548,24 +548,24 @@
         <v>11</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>3997.499999999993</v>
+        <v>4077.799999999937</v>
       </c>
       <c r="N3">
-        <v>-93.5</v>
+        <v>-146</v>
       </c>
       <c r="O3">
-        <v>0.4206106870229008</v>
+        <v>0.3711389961389961</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -574,19 +574,19 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -598,86 +598,86 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>3701.099999999929</v>
+        <v>4048.400000000034</v>
       </c>
       <c r="N4">
-        <v>-402</v>
+        <v>-330.5</v>
       </c>
       <c r="O4">
-        <v>0.3682039745031871</v>
+        <v>0.3328705310656022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5">
         <v>200</v>
       </c>
-      <c r="H5">
-        <v>180</v>
-      </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3589.200000000015</v>
+        <v>3997.499999999993</v>
       </c>
       <c r="N5">
-        <v>-459.5</v>
+        <v>-93.5</v>
       </c>
       <c r="O5">
-        <v>0.3221649484536083</v>
+        <v>0.4206106870229008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D6">
+        <v>3.2</v>
+      </c>
+      <c r="E6">
         <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3.8</v>
       </c>
       <c r="F6">
         <v>300</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -689,71 +689,71 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>3571.099999999999</v>
+        <v>3738.099999999944</v>
       </c>
       <c r="N6">
-        <v>-1189</v>
+        <v>-546</v>
       </c>
       <c r="O6">
-        <v>0.3563963963963964</v>
+        <v>0.3649775497113534</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>3176.499999999953</v>
+        <v>3701.099999999929</v>
       </c>
       <c r="N7">
-        <v>-685.5</v>
+        <v>-402</v>
       </c>
       <c r="O7">
-        <v>0.3788032454361055</v>
+        <v>0.3682039745031871</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -786,42 +786,42 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>3124.399999999929</v>
+        <v>3589.200000000015</v>
       </c>
       <c r="N8">
-        <v>-260.5</v>
+        <v>-459.5</v>
       </c>
       <c r="O8">
-        <v>0.3462661660408844</v>
+        <v>0.3221649484536083</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>80</v>
       </c>
       <c r="D9">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="F9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G9">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -833,585 +833,585 @@
         <v>30</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>2929.799999999916</v>
+        <v>3571.099999999999</v>
       </c>
       <c r="N9">
-        <v>-877.5</v>
+        <v>-1189</v>
       </c>
       <c r="O9">
-        <v>0.3618307426597582</v>
+        <v>0.3563963963963964</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="E10">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
         <v>400</v>
       </c>
-      <c r="G10">
-        <v>300</v>
-      </c>
       <c r="H10">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>2926.099999999991</v>
+        <v>3176.499999999953</v>
       </c>
       <c r="N10">
-        <v>-53</v>
+        <v>-685.5</v>
       </c>
       <c r="O10">
-        <v>0.3881322957198444</v>
+        <v>0.3788032454361055</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>40</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>3.4</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>2921.599999999969</v>
+        <v>3124.399999999929</v>
       </c>
       <c r="N11">
-        <v>-846.4000000000269</v>
+        <v>-260.5</v>
       </c>
       <c r="O11">
-        <v>0.3931436907366885</v>
+        <v>0.3462661660408844</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="E12">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G12">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>2540.700000000048</v>
+        <v>3060.899999999983</v>
       </c>
       <c r="N12">
-        <v>-152</v>
+        <v>-53</v>
       </c>
       <c r="O12">
-        <v>0.4103156274056967</v>
+        <v>0.3902308105206656</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G13">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>7</v>
       </c>
       <c r="M13">
-        <v>2301.599999999988</v>
+        <v>2957.699999999935</v>
       </c>
       <c r="N13">
-        <v>-3082.299999999996</v>
+        <v>-931</v>
       </c>
       <c r="O13">
-        <v>0.3568445475638051</v>
+        <v>0.3803972366148532</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>2.4</v>
       </c>
       <c r="E14">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="F14">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G14">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>1995.500000000022</v>
+        <v>2929.799999999916</v>
       </c>
       <c r="N14">
-        <v>-2738.89999999998</v>
+        <v>-877.5</v>
       </c>
       <c r="O14">
-        <v>0.4010263929618768</v>
+        <v>0.3618307426597582</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H15">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>1976.299999999894</v>
+        <v>2926.099999999991</v>
       </c>
       <c r="N15">
-        <v>-1633.900000000052</v>
+        <v>-53</v>
       </c>
       <c r="O15">
-        <v>0.3710159362549801</v>
+        <v>0.3881322957198444</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>40</v>
       </c>
       <c r="D16">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="E16">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>1842.099999999929</v>
+        <v>2921.599999999969</v>
       </c>
       <c r="N16">
-        <v>-626.5</v>
+        <v>-846.4000000000269</v>
       </c>
       <c r="O16">
-        <v>0.3772310660877954</v>
+        <v>0.3931436907366885</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="F17">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>1790.600000000064</v>
+        <v>2889.20000000003</v>
       </c>
       <c r="N17">
-        <v>-1383</v>
+        <v>-2090.5</v>
       </c>
       <c r="O17">
-        <v>0.4251798561151079</v>
+        <v>0.3648691264585304</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>30</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="E18">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G18">
         <v>200</v>
       </c>
       <c r="H18">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>6</v>
       </c>
       <c r="M18">
-        <v>1681.199999999899</v>
+        <v>2791.700000000015</v>
       </c>
       <c r="N18">
-        <v>-1300</v>
+        <v>-77</v>
       </c>
       <c r="O18">
-        <v>0.3544303797468354</v>
+        <v>0.3907603464870067</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D19">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>200</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1503.100000000013</v>
+        <v>2750.800000000014</v>
       </c>
       <c r="N19">
-        <v>-1493.799999999992</v>
+        <v>-489</v>
       </c>
       <c r="O19">
-        <v>0.3797206414899121</v>
+        <v>0.4085532302092811</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="E20">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F20">
         <v>400</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H20">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M20">
-        <v>1487.999999999956</v>
+        <v>2588.400000000056</v>
       </c>
       <c r="N20">
-        <v>-2052.000000000033</v>
+        <v>-330.5</v>
       </c>
       <c r="O20">
-        <v>0.3708333333333333</v>
+        <v>0.3432343234323432</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D21">
+        <v>3.4</v>
+      </c>
+      <c r="E21">
         <v>2.6</v>
       </c>
-      <c r="E21">
-        <v>3.8</v>
-      </c>
       <c r="F21">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G21">
         <v>200</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>1351.800000000014</v>
+        <v>2540.700000000048</v>
       </c>
       <c r="N21">
-        <v>-64</v>
+        <v>-152</v>
       </c>
       <c r="O21">
-        <v>0.3761270931730357</v>
+        <v>0.4103156274056967</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -1420,60 +1420,60 @@
         <v>60</v>
       </c>
       <c r="D22">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="E22">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G22">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="H22">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>1169.599999999926</v>
+        <v>2532.199999999913</v>
       </c>
       <c r="N22">
-        <v>-1801.600000000082</v>
+        <v>-305.5</v>
       </c>
       <c r="O22">
-        <v>0.364650059311981</v>
+        <v>0.382051282051282</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>80</v>
       </c>
       <c r="D23">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="E23">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G23">
         <v>200</v>
@@ -1482,142 +1482,142 @@
         <v>60</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>975.4999999999527</v>
+        <v>2301.599999999988</v>
       </c>
       <c r="N23">
-        <v>-3447.400000000001</v>
+        <v>-3082.299999999996</v>
       </c>
       <c r="O23">
-        <v>0.3569774174869716</v>
+        <v>0.3568445475638051</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="E24">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="F24">
+        <v>300</v>
+      </c>
+      <c r="G24">
         <v>200</v>
       </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
       <c r="H24">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>5</v>
       </c>
       <c r="M24">
-        <v>918.8999999999469</v>
+        <v>1995.500000000022</v>
       </c>
       <c r="N24">
-        <v>-1894.700000000001</v>
+        <v>-2738.89999999998</v>
       </c>
       <c r="O24">
-        <v>0.3975077881619938</v>
+        <v>0.4010263929618768</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D25">
+        <v>1.6</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="E25">
-        <v>2.8</v>
-      </c>
       <c r="F25">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G25">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>914.7000000000335</v>
+        <v>1976.299999999894</v>
       </c>
       <c r="N25">
-        <v>-1568.099999999948</v>
+        <v>-1633.900000000052</v>
       </c>
       <c r="O25">
-        <v>0.3458803847762443</v>
+        <v>0.3710159362549801</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="F26">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -1626,242 +1626,242 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>712.6999999999607</v>
+        <v>1842.099999999929</v>
       </c>
       <c r="N26">
-        <v>-1009.299999999999</v>
+        <v>-626.5</v>
       </c>
       <c r="O26">
-        <v>0.2973747016706444</v>
+        <v>0.3772310660877954</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>40</v>
       </c>
       <c r="D27">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="E27">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F27">
         <v>400</v>
       </c>
       <c r="G27">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H27">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L27">
         <v>5</v>
       </c>
       <c r="M27">
-        <v>613.5999999999658</v>
+        <v>1835.99999999996</v>
       </c>
       <c r="N27">
-        <v>-1548.799999999967</v>
+        <v>-789.0000000000327</v>
       </c>
       <c r="O27">
-        <v>0.3738546120952962</v>
+        <v>0.3867859600825878</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="G28">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H28">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L28">
         <v>5</v>
       </c>
       <c r="M28">
-        <v>154.7999999999847</v>
+        <v>1790.600000000064</v>
       </c>
       <c r="N28">
-        <v>-2245.100000000042</v>
+        <v>-1383</v>
       </c>
       <c r="O28">
-        <v>0.3925792938360264</v>
+        <v>0.4251798561151079</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E29">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G29">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>91.6000000000131</v>
+        <v>1681.199999999899</v>
       </c>
       <c r="N29">
-        <v>-2102</v>
+        <v>-1300</v>
       </c>
       <c r="O29">
-        <v>0.4121295658166781</v>
+        <v>0.3544303797468354</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="G30">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H30">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K30">
         <v>30</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>-234.8000000000138</v>
+        <v>1656.29999999989</v>
       </c>
       <c r="N30">
-        <v>-3443.000000000011</v>
+        <v>-782.2999999999956</v>
       </c>
       <c r="O30">
-        <v>0.3751946030098599</v>
+        <v>0.3656812339331619</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="E31">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G31">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1870,412 +1870,412 @@
         <v>7</v>
       </c>
       <c r="M31">
-        <v>-293.1999999999825</v>
+        <v>1562.899999999921</v>
       </c>
       <c r="N31">
-        <v>-1181.799999999992</v>
+        <v>-369.5</v>
       </c>
       <c r="O31">
-        <v>0.3784386617100371</v>
+        <v>0.3739545997610514</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="E32">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>-363.5999999999513</v>
+        <v>1503.100000000013</v>
       </c>
       <c r="N32">
-        <v>-1460.099999999969</v>
+        <v>-1493.799999999992</v>
       </c>
       <c r="O32">
-        <v>0.3808080808080808</v>
+        <v>0.3797206414899121</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="E33">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="F33">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M33">
-        <v>-597.4000000000415</v>
+        <v>1487.999999999956</v>
       </c>
       <c r="N33">
-        <v>-1935.800000000003</v>
+        <v>-2052.000000000033</v>
       </c>
       <c r="O33">
-        <v>0.3966861598440546</v>
+        <v>0.3708333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>40</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G34">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H34">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K34">
         <v>30</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>-1140.29999999997</v>
+        <v>1352.599999999937</v>
       </c>
       <c r="N34">
-        <v>-4089.700000000037</v>
+        <v>-1721.099999999948</v>
       </c>
       <c r="O34">
-        <v>0.355575593627893</v>
+        <v>0.3801313628899836</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="E35">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F35">
+        <v>250</v>
+      </c>
+      <c r="G35">
         <v>200</v>
       </c>
-      <c r="G35">
-        <v>250</v>
-      </c>
       <c r="H35">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>-1567.499999999967</v>
+        <v>1351.800000000014</v>
       </c>
       <c r="N35">
-        <v>-2866.199999999946</v>
+        <v>-64</v>
       </c>
       <c r="O35">
-        <v>0.3972877950778503</v>
+        <v>0.3761270931730357</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>60</v>
       </c>
       <c r="D36">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="E36">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="F36">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="H36">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>12</v>
       </c>
       <c r="M36">
-        <v>-2032.000000000036</v>
+        <v>1169.599999999926</v>
       </c>
       <c r="N36">
-        <v>-7817.000000000011</v>
+        <v>-1801.600000000082</v>
       </c>
       <c r="O36">
-        <v>0.3921999450700357</v>
+        <v>0.364650059311981</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F37">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H37">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K37">
         <v>30</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>-2398.299999999959</v>
+        <v>983.5999999999694</v>
       </c>
       <c r="N37">
-        <v>-5921.399999999936</v>
+        <v>-1637.399999999994</v>
       </c>
       <c r="O37">
-        <v>0.3641698308595098</v>
+        <v>0.3740540540540541</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>80</v>
       </c>
       <c r="D38">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="E38">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="F38">
         <v>100</v>
       </c>
       <c r="G38">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="H38">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K38">
         <v>30</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M38">
-        <v>-3285.89999999986</v>
+        <v>975.4999999999527</v>
       </c>
       <c r="N38">
-        <v>-6793.999999999953</v>
+        <v>-3447.400000000001</v>
       </c>
       <c r="O38">
-        <v>0.3693304535637149</v>
+        <v>0.3569774174869716</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="F39">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="M39">
-        <v>-3592.199999999993</v>
+        <v>918.8999999999469</v>
       </c>
       <c r="N39">
-        <v>-8011.799999999937</v>
+        <v>-1894.700000000001</v>
       </c>
       <c r="O39">
-        <v>0.4034861200774693</v>
+        <v>0.3975077881619938</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>100</v>
       </c>
       <c r="D40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="F40">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G40">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H40">
         <v>180</v>
@@ -2284,92 +2284,92 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K40">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>8</v>
       </c>
       <c r="M40">
-        <v>-3702.499999999964</v>
+        <v>914.7000000000335</v>
       </c>
       <c r="N40">
-        <v>-5292.89999999998</v>
+        <v>-1568.099999999948</v>
       </c>
       <c r="O40">
-        <v>0.328688524590164</v>
+        <v>0.3458803847762443</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M41">
-        <v>-4861.299999999908</v>
+        <v>712.6999999999607</v>
       </c>
       <c r="N41">
-        <v>-7679.199999999943</v>
+        <v>-1009.299999999999</v>
       </c>
       <c r="O41">
-        <v>0.3776185226019846</v>
+        <v>0.2973747016706444</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="F42">
         <v>400</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H42">
         <v>140</v>
@@ -2378,356 +2378,356 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>-5408.099999999875</v>
+        <v>613.5999999999658</v>
       </c>
       <c r="N42">
-        <v>-9080.599999999988</v>
+        <v>-1548.799999999967</v>
       </c>
       <c r="O42">
-        <v>0.3859649122807017</v>
+        <v>0.3738546120952962</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43">
+        <v>114</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3.6</v>
+      </c>
+      <c r="F43">
+        <v>150</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>13</v>
       </c>
-      <c r="B43">
-        <v>30</v>
-      </c>
-      <c r="C43">
-        <v>60</v>
-      </c>
-      <c r="D43">
-        <v>3.8</v>
-      </c>
-      <c r="E43">
-        <v>3.8</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-      <c r="H43">
-        <v>40</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>22</v>
-      </c>
       <c r="K43">
         <v>30</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M43">
-        <v>-5711.399999999969</v>
+        <v>550.1000000000167</v>
       </c>
       <c r="N43">
-        <v>-7044.399999999972</v>
+        <v>-5153.599999999988</v>
       </c>
       <c r="O43">
-        <v>0.4026032315978456</v>
+        <v>0.3645305514157973</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>40</v>
       </c>
       <c r="D44">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="E44">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="F44">
         <v>350</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H44">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K44">
         <v>30</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M44">
-        <v>-5728.199999999957</v>
+        <v>481.6999999999716</v>
       </c>
       <c r="N44">
-        <v>-7196.499999999953</v>
+        <v>-967.7000000000116</v>
       </c>
       <c r="O44">
-        <v>0.4412416851441242</v>
+        <v>0.3706176961602671</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B45">
         <v>20</v>
       </c>
       <c r="C45">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="E45">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="F45">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H45">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K45">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M45">
-        <v>-5758.199999999979</v>
+        <v>424.0000000001382</v>
       </c>
       <c r="N45">
-        <v>-9631.199999999924</v>
+        <v>-4628.499999999953</v>
       </c>
       <c r="O45">
-        <v>0.3747787610619469</v>
+        <v>0.3572267920094007</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
+        <v>125</v>
+      </c>
+      <c r="B46">
         <v>20</v>
       </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
       <c r="C46">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E46">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M46">
-        <v>-6539.500000000015</v>
+        <v>367.3000000000138</v>
       </c>
       <c r="N46">
-        <v>-8718.599999999962</v>
+        <v>-2947.700000000015</v>
       </c>
       <c r="O46">
-        <v>0.376410835214447</v>
+        <v>0.368445475638051</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D47">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="E47">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G47">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>-6644.899999999896</v>
+        <v>256.6999999999389</v>
       </c>
       <c r="N47">
-        <v>-8445.199999999935</v>
+        <v>-75</v>
       </c>
       <c r="O47">
-        <v>0.3257918552036199</v>
+        <v>0.3652849740932643</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="E48">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="F48">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G48">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H48">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>-6943.299999999927</v>
+        <v>154.7999999999847</v>
       </c>
       <c r="N48">
-        <v>-9779.699999999913</v>
+        <v>-2245.100000000042</v>
       </c>
       <c r="O48">
-        <v>0.375704989154013</v>
+        <v>0.3925792938360264</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>30</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="F49">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G49">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K49">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>4</v>
       </c>
       <c r="M49">
-        <v>-7181.099999999977</v>
+        <v>91.6000000000131</v>
       </c>
       <c r="N49">
-        <v>-9490.399999999947</v>
+        <v>-2102</v>
       </c>
       <c r="O49">
-        <v>0.3912037037037037</v>
+        <v>0.4121295658166781</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -2736,113 +2736,113 @@
         <v>80</v>
       </c>
       <c r="D50">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G50">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H50">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M50">
-        <v>-7878.799999999905</v>
+        <v>90.09999999999854</v>
       </c>
       <c r="N50">
-        <v>-13714.99999999993</v>
+        <v>-4607.5</v>
       </c>
       <c r="O50">
-        <v>0.3605679078489151</v>
+        <v>0.3723108952116586</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="E51">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G51">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M51">
-        <v>-7986.799999999879</v>
+        <v>-197.2000000000698</v>
       </c>
       <c r="N51">
-        <v>-11592.09999999994</v>
+        <v>-4634.899999999969</v>
       </c>
       <c r="O51">
-        <v>0.3691037735849056</v>
+        <v>0.3125628140703517</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52">
+        <v>150</v>
+      </c>
+      <c r="G52">
         <v>300</v>
       </c>
-      <c r="G52">
-        <v>250</v>
-      </c>
       <c r="H52">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2851,86 +2851,86 @@
         <v>15</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M52">
-        <v>-8072.099999999995</v>
+        <v>-234.8000000000138</v>
       </c>
       <c r="N52">
-        <v>-14787.09999999995</v>
+        <v>-3443.000000000011</v>
       </c>
       <c r="O52">
-        <v>0.3539657020364416</v>
+        <v>0.3751946030098599</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>2.6</v>
+      </c>
+      <c r="E53">
+        <v>2.2</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>350</v>
+      </c>
+      <c r="H53">
+        <v>60</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>10</v>
       </c>
-      <c r="C53">
-        <v>60</v>
-      </c>
-      <c r="D53">
-        <v>3.8</v>
-      </c>
-      <c r="E53">
-        <v>1.4</v>
-      </c>
-      <c r="F53">
-        <v>150</v>
-      </c>
-      <c r="G53">
-        <v>400</v>
-      </c>
-      <c r="H53">
-        <v>80</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>16</v>
-      </c>
       <c r="K53">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M53">
-        <v>-8108.199999999895</v>
+        <v>-293.1999999999825</v>
       </c>
       <c r="N53">
-        <v>-10834.39999999995</v>
+        <v>-1181.799999999992</v>
       </c>
       <c r="O53">
-        <v>0.3057391304347826</v>
+        <v>0.3784386617100371</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="F54">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G54">
         <v>100</v>
@@ -2939,186 +2939,186 @@
         <v>40</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K54">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>-8232.799999999854</v>
+        <v>-363.5999999999513</v>
       </c>
       <c r="N54">
-        <v>-13269.39999999997</v>
+        <v>-1460.099999999969</v>
       </c>
       <c r="O54">
-        <v>0.3483870967741935</v>
+        <v>0.3808080808080808</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="E55">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G55">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H55">
         <v>20</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K55">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M55">
-        <v>-8629.799999999956</v>
+        <v>-595.2000000000262</v>
       </c>
       <c r="N55">
-        <v>-14814.19999999993</v>
+        <v>-5963.000000000036</v>
       </c>
       <c r="O55">
-        <v>0.3562653562653563</v>
+        <v>0.350558081852005</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B56">
         <v>20</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D56">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="E56">
+        <v>2.2</v>
+      </c>
+      <c r="F56">
+        <v>200</v>
+      </c>
+      <c r="G56">
+        <v>150</v>
+      </c>
+      <c r="H56">
+        <v>60</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>30</v>
+      </c>
+      <c r="L56">
         <v>4</v>
       </c>
-      <c r="F56">
-        <v>300</v>
-      </c>
-      <c r="G56">
-        <v>250</v>
-      </c>
-      <c r="H56">
-        <v>20</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>15</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>11</v>
-      </c>
       <c r="M56">
-        <v>-8685.199999999772</v>
+        <v>-597.4000000000415</v>
       </c>
       <c r="N56">
-        <v>-13105.09999999996</v>
+        <v>-1935.800000000003</v>
       </c>
       <c r="O56">
-        <v>0.2940156114483955</v>
+        <v>0.3966861598440546</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>60</v>
       </c>
       <c r="D57">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="F57">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K57">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>-8954.599999999893</v>
+        <v>-849.7000000000262</v>
       </c>
       <c r="N57">
-        <v>-11890.49999999997</v>
+        <v>-3831.800000000054</v>
       </c>
       <c r="O57">
-        <v>0.3674008810572687</v>
+        <v>0.36317489616982</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="B58">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F58">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G58">
         <v>200</v>
@@ -3127,321 +3127,321 @@
         <v>180</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M58">
-        <v>-8999.999999999913</v>
+        <v>-870.6999999998916</v>
       </c>
       <c r="N58">
-        <v>-13487.89999999995</v>
+        <v>-4389.999999999967</v>
       </c>
       <c r="O58">
-        <v>0.3151715833835039</v>
+        <v>0.3811475409836065</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C59">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E59">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="F59">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G59">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="H59">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>-9666.300000000119</v>
+        <v>-1005.700000000041</v>
       </c>
       <c r="N59">
-        <v>-11681.20000000002</v>
+        <v>-2411.400000000027</v>
       </c>
       <c r="O59">
-        <v>0.3393157599551318</v>
+        <v>0.3933518005540166</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <v>50</v>
       </c>
       <c r="G60">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M60">
-        <v>-9983.299999999996</v>
+        <v>-1140.29999999997</v>
       </c>
       <c r="N60">
-        <v>-10565.79999999997</v>
+        <v>-4089.700000000037</v>
       </c>
       <c r="O60">
-        <v>0.3162544169611308</v>
+        <v>0.355575593627893</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D61">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="F61">
         <v>100</v>
       </c>
       <c r="G61">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H61">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M61">
-        <v>-10269.79999999996</v>
+        <v>-1467.099999999846</v>
       </c>
       <c r="N61">
-        <v>-14829.90000000001</v>
+        <v>-5514</v>
       </c>
       <c r="O61">
-        <v>0.3496543778801843</v>
+        <v>0.2746001626457034</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <v>30</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D62">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E62">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="F62">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G62">
         <v>250</v>
       </c>
       <c r="H62">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M62">
-        <v>-10687.7999999999</v>
+        <v>-1567.499999999967</v>
       </c>
       <c r="N62">
-        <v>-14413.29999999987</v>
+        <v>-2866.199999999946</v>
       </c>
       <c r="O62">
-        <v>0.3779411764705882</v>
+        <v>0.3972877950778503</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B63">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D63">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="E63">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="F63">
         <v>150</v>
       </c>
       <c r="G63">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H63">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K63">
         <v>30</v>
       </c>
       <c r="L63">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>-10812.79999999996</v>
+        <v>-1744.099999999919</v>
       </c>
       <c r="N63">
-        <v>-12361.09999999995</v>
+        <v>-3445.499999999964</v>
       </c>
       <c r="O63">
-        <v>0.3937321937321938</v>
+        <v>0.3787878787878788</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B64">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>80</v>
       </c>
       <c r="D64">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="F64">
         <v>50</v>
       </c>
       <c r="G64">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H64">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K64">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>-11497.29999999995</v>
+        <v>-1763.900000000045</v>
       </c>
       <c r="N64">
-        <v>-11746.89999999993</v>
+        <v>-2546.700000000008</v>
       </c>
       <c r="O64">
-        <v>0.3109243697478992</v>
+        <v>0.3586698337292161</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C65">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D65">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3450,83 +3450,83 @@
         <v>100</v>
       </c>
       <c r="G65">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H65">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M65">
-        <v>-11628.69999999987</v>
+        <v>-1910.100000000046</v>
       </c>
       <c r="N65">
-        <v>-13361.69999999993</v>
+        <v>-3667.100000000006</v>
       </c>
       <c r="O65">
-        <v>0.3549307253463733</v>
+        <v>0.2951132300357568</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C66">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="E66">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="F66">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G66">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H66">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K66">
         <v>30</v>
       </c>
       <c r="L66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M66">
-        <v>-12176.99999999995</v>
+        <v>-2032.000000000036</v>
       </c>
       <c r="N66">
-        <v>-13441.59999999997</v>
+        <v>-7817.000000000011</v>
       </c>
       <c r="O66">
-        <v>0.3903133903133903</v>
+        <v>0.3921999450700357</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B67">
         <v>30</v>
@@ -3535,181 +3535,3518 @@
         <v>40</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H67">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M67">
-        <v>-12531.89999999994</v>
+        <v>-2257.39999999998</v>
       </c>
       <c r="N67">
-        <v>-13044.79999999993</v>
+        <v>-6120.799999999996</v>
       </c>
       <c r="O67">
-        <v>0.3245614035087719</v>
+        <v>0.3729984301412873</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>50</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D68">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E68">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="F68">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G68">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H68">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K68">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M68">
-        <v>-13125.79999999978</v>
+        <v>-2386.699999999852</v>
       </c>
       <c r="N68">
-        <v>-18685.19999999988</v>
+        <v>-5931.499999999916</v>
       </c>
       <c r="O68">
-        <v>0.3147410358565737</v>
+        <v>0.3863207547169811</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B69">
         <v>10</v>
       </c>
       <c r="C69">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D69">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="E69">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G69">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K69">
         <v>30</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M69">
-        <v>-13391.69999999983</v>
+        <v>-2398.299999999959</v>
       </c>
       <c r="N69">
-        <v>-14774.89999999982</v>
+        <v>-5921.399999999936</v>
       </c>
       <c r="O69">
-        <v>0.3427660422479075</v>
+        <v>0.3641698308595098</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>80</v>
+      </c>
+      <c r="D70">
+        <v>1.4</v>
+      </c>
+      <c r="E70">
+        <v>2.2</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70">
+        <v>200</v>
+      </c>
+      <c r="H70">
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>18</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>-2942.599999999878</v>
+      </c>
+      <c r="N70">
+        <v>-6068.499999999967</v>
+      </c>
+      <c r="O70">
+        <v>0.3741217798594848</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>98</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>60</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71">
+        <v>200</v>
+      </c>
+      <c r="H71">
+        <v>140</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>17</v>
+      </c>
+      <c r="K71">
+        <v>30</v>
+      </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>-2987.999999999931</v>
+      </c>
+      <c r="N71">
+        <v>-5384.599999999988</v>
+      </c>
+      <c r="O71">
+        <v>0.3524355300859599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72">
+        <v>132</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>2.6</v>
+      </c>
+      <c r="F72">
+        <v>200</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>21</v>
+      </c>
+      <c r="K72">
+        <v>30</v>
+      </c>
+      <c r="L72">
+        <v>10</v>
+      </c>
+      <c r="M72">
+        <v>-3163.599999999911</v>
+      </c>
+      <c r="N72">
+        <v>-5418.399999999914</v>
+      </c>
+      <c r="O72">
+        <v>0.3820717131474103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <v>31</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>1.6</v>
+      </c>
+      <c r="E73">
+        <v>2.8</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>350</v>
+      </c>
+      <c r="H73">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>19</v>
+      </c>
+      <c r="K73">
+        <v>30</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>-3285.89999999986</v>
+      </c>
+      <c r="N73">
+        <v>-6793.999999999953</v>
+      </c>
+      <c r="O73">
+        <v>0.3693304535637149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>138</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>300</v>
+      </c>
+      <c r="G74">
+        <v>50</v>
+      </c>
+      <c r="H74">
+        <v>160</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>17</v>
+      </c>
+      <c r="K74">
+        <v>30</v>
+      </c>
+      <c r="L74">
+        <v>9</v>
+      </c>
+      <c r="M74">
+        <v>-3567.399999999983</v>
+      </c>
+      <c r="N74">
+        <v>-7300.5</v>
+      </c>
+      <c r="O74">
+        <v>0.3854688618468146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>60</v>
+      </c>
+      <c r="D75">
+        <v>2.6</v>
+      </c>
+      <c r="E75">
+        <v>3.4</v>
+      </c>
+      <c r="F75">
+        <v>350</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>160</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>21</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>-3580.399999999867</v>
+      </c>
+      <c r="N75">
+        <v>-6111.39999999994</v>
+      </c>
+      <c r="O75">
+        <v>0.4161988773055333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>40</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>3.8</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>250</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>60</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>23</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>-3592.199999999993</v>
+      </c>
+      <c r="N76">
+        <v>-8011.799999999937</v>
+      </c>
+      <c r="O76">
+        <v>0.4034861200774693</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+      <c r="D77">
+        <v>3.4</v>
+      </c>
+      <c r="E77">
+        <v>1.4</v>
+      </c>
+      <c r="F77">
+        <v>350</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>18</v>
+      </c>
+      <c r="K77">
+        <v>30</v>
+      </c>
+      <c r="L77">
+        <v>11</v>
+      </c>
+      <c r="M77">
+        <v>-3654.299999999937</v>
+      </c>
+      <c r="N77">
+        <v>-8614.899999999936</v>
+      </c>
+      <c r="O77">
+        <v>0.3496549457771936</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <v>43</v>
+      </c>
+      <c r="B78">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>3.8</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>200</v>
+      </c>
+      <c r="G78">
+        <v>250</v>
+      </c>
+      <c r="H78">
+        <v>180</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>15</v>
+      </c>
+      <c r="K78">
+        <v>30</v>
+      </c>
+      <c r="L78">
+        <v>8</v>
+      </c>
+      <c r="M78">
+        <v>-3702.499999999964</v>
+      </c>
+      <c r="N78">
+        <v>-5292.89999999998</v>
+      </c>
+      <c r="O78">
+        <v>0.328688524590164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <v>70</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>3.2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>250</v>
+      </c>
+      <c r="G79">
+        <v>200</v>
+      </c>
+      <c r="H79">
+        <v>200</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>23</v>
+      </c>
+      <c r="K79">
+        <v>30</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>-3897.699999999917</v>
+      </c>
+      <c r="N79">
+        <v>-7411.99999999992</v>
+      </c>
+      <c r="O79">
+        <v>0.41484375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>2.2</v>
+      </c>
+      <c r="E80">
+        <v>2.4</v>
+      </c>
+      <c r="F80">
+        <v>300</v>
+      </c>
+      <c r="G80">
+        <v>300</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>16</v>
+      </c>
+      <c r="K80">
+        <v>30</v>
+      </c>
+      <c r="L80">
+        <v>9</v>
+      </c>
+      <c r="M80">
+        <v>-4066.400000000023</v>
+      </c>
+      <c r="N80">
+        <v>-7890.900000000005</v>
+      </c>
+      <c r="O80">
+        <v>0.3775474956822107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>120</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>1.2</v>
+      </c>
+      <c r="E81">
+        <v>2.8</v>
+      </c>
+      <c r="F81">
+        <v>250</v>
+      </c>
+      <c r="G81">
+        <v>350</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>23</v>
+      </c>
+      <c r="K81">
+        <v>30</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>-4183.799999999927</v>
+      </c>
+      <c r="N81">
+        <v>-6905.89999999994</v>
+      </c>
+      <c r="O81">
+        <v>0.3928293063133281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <v>99</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>1.4</v>
+      </c>
+      <c r="F82">
+        <v>200</v>
+      </c>
+      <c r="G82">
+        <v>350</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>16</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="M82">
+        <v>-4458.299999999963</v>
+      </c>
+      <c r="N82">
+        <v>-8984.800000000021</v>
+      </c>
+      <c r="O82">
+        <v>0.3709226467847158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83">
+        <v>41</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>40</v>
+      </c>
+      <c r="D83">
+        <v>3.6</v>
+      </c>
+      <c r="E83">
+        <v>1.4</v>
+      </c>
+      <c r="F83">
+        <v>250</v>
+      </c>
+      <c r="G83">
+        <v>150</v>
+      </c>
+      <c r="H83">
+        <v>60</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>21</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>6</v>
+      </c>
+      <c r="M83">
+        <v>-4861.299999999908</v>
+      </c>
+      <c r="N83">
+        <v>-7679.199999999943</v>
+      </c>
+      <c r="O83">
+        <v>0.3776185226019846</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>40</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>2.4</v>
+      </c>
+      <c r="F84">
+        <v>250</v>
+      </c>
+      <c r="G84">
+        <v>250</v>
+      </c>
+      <c r="H84">
+        <v>40</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>21</v>
+      </c>
+      <c r="K84">
+        <v>30</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>-4941.499999999953</v>
+      </c>
+      <c r="N84">
+        <v>-6939.799999999959</v>
+      </c>
+      <c r="O84">
+        <v>0.386748844375963</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85">
+        <v>129</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>80</v>
+      </c>
+      <c r="D85">
+        <v>2.6</v>
+      </c>
+      <c r="E85">
+        <v>2.8</v>
+      </c>
+      <c r="F85">
+        <v>400</v>
+      </c>
+      <c r="G85">
+        <v>200</v>
+      </c>
+      <c r="H85">
+        <v>180</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>17</v>
+      </c>
+      <c r="K85">
+        <v>30</v>
+      </c>
+      <c r="L85">
+        <v>8</v>
+      </c>
+      <c r="M85">
+        <v>-4963.699999999866</v>
+      </c>
+      <c r="N85">
+        <v>-10124.39999999993</v>
+      </c>
+      <c r="O85">
+        <v>0.3284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2.8</v>
+      </c>
+      <c r="F86">
+        <v>250</v>
+      </c>
+      <c r="G86">
+        <v>50</v>
+      </c>
+      <c r="H86">
+        <v>200</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>22</v>
+      </c>
+      <c r="K86">
+        <v>30</v>
+      </c>
+      <c r="L86">
+        <v>6</v>
+      </c>
+      <c r="M86">
+        <v>-5200.599999999948</v>
+      </c>
+      <c r="N86">
+        <v>-7281.29999999997</v>
+      </c>
+      <c r="O86">
+        <v>0.4143646408839779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>60</v>
+      </c>
+      <c r="D87">
+        <v>2.4</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>400</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>140</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>20</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>6</v>
+      </c>
+      <c r="M87">
+        <v>-5408.099999999875</v>
+      </c>
+      <c r="N87">
+        <v>-9080.599999999988</v>
+      </c>
+      <c r="O87">
+        <v>0.3859649122807017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>60</v>
+      </c>
+      <c r="D88">
+        <v>3.8</v>
+      </c>
+      <c r="E88">
+        <v>3.8</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88">
+        <v>50</v>
+      </c>
+      <c r="H88">
+        <v>40</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>22</v>
+      </c>
+      <c r="K88">
+        <v>30</v>
+      </c>
+      <c r="L88">
+        <v>8</v>
+      </c>
+      <c r="M88">
+        <v>-5711.399999999969</v>
+      </c>
+      <c r="N88">
+        <v>-7044.399999999972</v>
+      </c>
+      <c r="O88">
+        <v>0.4026032315978456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>59</v>
+      </c>
+      <c r="B89">
+        <v>40</v>
+      </c>
+      <c r="C89">
+        <v>40</v>
+      </c>
+      <c r="D89">
+        <v>3.2</v>
+      </c>
+      <c r="E89">
+        <v>2.4</v>
+      </c>
+      <c r="F89">
+        <v>350</v>
+      </c>
+      <c r="G89">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>160</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>22</v>
+      </c>
+      <c r="K89">
+        <v>30</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>-5728.199999999957</v>
+      </c>
+      <c r="N89">
+        <v>-7196.499999999953</v>
+      </c>
+      <c r="O89">
+        <v>0.4412416851441242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>34</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>80</v>
+      </c>
+      <c r="D90">
+        <v>3.6</v>
+      </c>
+      <c r="E90">
+        <v>2.4</v>
+      </c>
+      <c r="F90">
+        <v>150</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>120</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>21</v>
+      </c>
+      <c r="K90">
+        <v>30</v>
+      </c>
+      <c r="L90">
+        <v>8</v>
+      </c>
+      <c r="M90">
+        <v>-5758.199999999979</v>
+      </c>
+      <c r="N90">
+        <v>-9631.199999999924</v>
+      </c>
+      <c r="O90">
+        <v>0.3747787610619469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <v>74</v>
+      </c>
+      <c r="B91">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>3.4</v>
+      </c>
+      <c r="E91">
+        <v>2.4</v>
+      </c>
+      <c r="F91">
+        <v>150</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>20</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>18</v>
+      </c>
+      <c r="K91">
+        <v>30</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
+      <c r="M91">
+        <v>-6535.399999999834</v>
+      </c>
+      <c r="N91">
+        <v>-12772.99999999991</v>
+      </c>
+      <c r="O91">
+        <v>0.3580246913580247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <v>20</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>60</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>2.4</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+      <c r="G92">
+        <v>150</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>23</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>-6539.500000000015</v>
+      </c>
+      <c r="N92">
+        <v>-8718.599999999962</v>
+      </c>
+      <c r="O92">
+        <v>0.376410835214447</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <v>108</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <v>3.6</v>
+      </c>
+      <c r="E93">
+        <v>3.2</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+      <c r="G93">
+        <v>150</v>
+      </c>
+      <c r="H93">
+        <v>140</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>16</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>9</v>
+      </c>
+      <c r="M93">
+        <v>-6628.799999999967</v>
+      </c>
+      <c r="N93">
+        <v>-10369.4</v>
+      </c>
+      <c r="O93">
+        <v>0.362169584620666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <v>49</v>
+      </c>
+      <c r="B94">
+        <v>40</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>2.2</v>
+      </c>
+      <c r="E94">
+        <v>3.2</v>
+      </c>
+      <c r="F94">
+        <v>50</v>
+      </c>
+      <c r="G94">
+        <v>400</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>22</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>-6644.899999999896</v>
+      </c>
+      <c r="N94">
+        <v>-8445.199999999935</v>
+      </c>
+      <c r="O94">
+        <v>0.3257918552036199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>40</v>
+      </c>
+      <c r="D95">
+        <v>1.2</v>
+      </c>
+      <c r="E95">
+        <v>1.8</v>
+      </c>
+      <c r="F95">
+        <v>350</v>
+      </c>
+      <c r="G95">
+        <v>150</v>
+      </c>
+      <c r="H95">
+        <v>120</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>21</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>8</v>
+      </c>
+      <c r="M95">
+        <v>-6686.399999999969</v>
+      </c>
+      <c r="N95">
+        <v>-9171.699999999935</v>
+      </c>
+      <c r="O95">
+        <v>0.3694885361552028</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>80</v>
+      </c>
+      <c r="D96">
+        <v>1.2</v>
+      </c>
+      <c r="E96">
+        <v>1.4</v>
+      </c>
+      <c r="F96">
+        <v>300</v>
+      </c>
+      <c r="G96">
+        <v>150</v>
+      </c>
+      <c r="H96">
+        <v>60</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>17</v>
+      </c>
+      <c r="K96">
+        <v>30</v>
+      </c>
+      <c r="L96">
+        <v>8</v>
+      </c>
+      <c r="M96">
+        <v>-6734.499999999865</v>
+      </c>
+      <c r="N96">
+        <v>-11133.49999999993</v>
+      </c>
+      <c r="O96">
+        <v>0.3324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>40</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1.4</v>
+      </c>
+      <c r="F97">
+        <v>350</v>
+      </c>
+      <c r="G97">
+        <v>400</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>23</v>
+      </c>
+      <c r="K97">
+        <v>30</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>-6933.099999999991</v>
+      </c>
+      <c r="N97">
+        <v>-7656.999999999982</v>
+      </c>
+      <c r="O97">
+        <v>0.3931171409662475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <v>134</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>80</v>
+      </c>
+      <c r="D98">
+        <v>3.2</v>
+      </c>
+      <c r="E98">
+        <v>1.4</v>
+      </c>
+      <c r="F98">
+        <v>350</v>
+      </c>
+      <c r="G98">
+        <v>200</v>
+      </c>
+      <c r="H98">
+        <v>80</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>22</v>
+      </c>
+      <c r="K98">
+        <v>30</v>
+      </c>
+      <c r="L98">
+        <v>9</v>
+      </c>
+      <c r="M98">
+        <v>-6933.999999999858</v>
+      </c>
+      <c r="N98">
+        <v>-7753.699999999855</v>
+      </c>
+      <c r="O98">
+        <v>0.3662280701754386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>60</v>
+      </c>
+      <c r="D99">
+        <v>2.8</v>
+      </c>
+      <c r="E99">
+        <v>2.6</v>
+      </c>
+      <c r="F99">
+        <v>250</v>
+      </c>
+      <c r="G99">
+        <v>250</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>19</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>8</v>
+      </c>
+      <c r="M99">
+        <v>-6943.299999999927</v>
+      </c>
+      <c r="N99">
+        <v>-9779.699999999913</v>
+      </c>
+      <c r="O99">
+        <v>0.375704989154013</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>20</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <v>2.4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>300</v>
+      </c>
+      <c r="G100">
+        <v>400</v>
+      </c>
+      <c r="H100">
+        <v>60</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>22</v>
+      </c>
+      <c r="K100">
+        <v>30</v>
+      </c>
+      <c r="L100">
+        <v>9</v>
+      </c>
+      <c r="M100">
+        <v>-7099.999999999869</v>
+      </c>
+      <c r="N100">
+        <v>-8566.699999999837</v>
+      </c>
+      <c r="O100">
+        <v>0.3783311489733508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1.2</v>
+      </c>
+      <c r="F101">
+        <v>150</v>
+      </c>
+      <c r="G101">
+        <v>250</v>
+      </c>
+      <c r="H101">
+        <v>60</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>21</v>
+      </c>
+      <c r="K101">
+        <v>30</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>-7181.099999999977</v>
+      </c>
+      <c r="N101">
+        <v>-9490.399999999947</v>
+      </c>
+      <c r="O101">
+        <v>0.3912037037037037</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>83</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>60</v>
+      </c>
+      <c r="D102">
+        <v>1.2</v>
+      </c>
+      <c r="E102">
+        <v>1.4</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102">
+        <v>300</v>
+      </c>
+      <c r="H102">
+        <v>160</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>13</v>
+      </c>
+      <c r="K102">
+        <v>30</v>
+      </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <v>-7518.099999999959</v>
+      </c>
+      <c r="N102">
+        <v>-7518.099999999959</v>
+      </c>
+      <c r="O102">
+        <v>0.2745762711864407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <v>128</v>
+      </c>
+      <c r="B103">
+        <v>40</v>
+      </c>
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <v>1.8</v>
+      </c>
+      <c r="E103">
+        <v>3.6</v>
+      </c>
+      <c r="F103">
+        <v>400</v>
+      </c>
+      <c r="G103">
+        <v>250</v>
+      </c>
+      <c r="H103">
+        <v>140</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>23</v>
+      </c>
+      <c r="K103">
+        <v>30</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>-7612.700000000001</v>
+      </c>
+      <c r="N103">
+        <v>-8504.399999999972</v>
+      </c>
+      <c r="O103">
+        <v>0.3951025810721376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>54</v>
+      </c>
+      <c r="B104">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>80</v>
+      </c>
+      <c r="D104">
+        <v>3.2</v>
+      </c>
+      <c r="E104">
+        <v>3.4</v>
+      </c>
+      <c r="F104">
+        <v>400</v>
+      </c>
+      <c r="G104">
+        <v>400</v>
+      </c>
+      <c r="H104">
+        <v>80</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>15</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>12</v>
+      </c>
+      <c r="M104">
+        <v>-7878.799999999905</v>
+      </c>
+      <c r="N104">
+        <v>-13714.99999999993</v>
+      </c>
+      <c r="O104">
+        <v>0.3605679078489151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>42</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+      <c r="C105">
+        <v>80</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>1.6</v>
+      </c>
+      <c r="F105">
+        <v>100</v>
+      </c>
+      <c r="G105">
+        <v>250</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>17</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>8</v>
+      </c>
+      <c r="M105">
+        <v>-7986.799999999879</v>
+      </c>
+      <c r="N105">
+        <v>-11592.09999999994</v>
+      </c>
+      <c r="O105">
+        <v>0.3691037735849056</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <v>14</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>100</v>
+      </c>
+      <c r="D106">
+        <v>2.4</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>300</v>
+      </c>
+      <c r="G106">
+        <v>250</v>
+      </c>
+      <c r="H106">
+        <v>20</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>15</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>12</v>
+      </c>
+      <c r="M106">
+        <v>-8072.099999999995</v>
+      </c>
+      <c r="N106">
+        <v>-14787.09999999995</v>
+      </c>
+      <c r="O106">
+        <v>0.3539657020364416</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>60</v>
+      </c>
+      <c r="D107">
+        <v>3.8</v>
+      </c>
+      <c r="E107">
+        <v>1.4</v>
+      </c>
+      <c r="F107">
+        <v>150</v>
+      </c>
+      <c r="G107">
+        <v>400</v>
+      </c>
+      <c r="H107">
+        <v>80</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>16</v>
+      </c>
+      <c r="K107">
+        <v>30</v>
+      </c>
+      <c r="L107">
+        <v>9</v>
+      </c>
+      <c r="M107">
+        <v>-8108.199999999895</v>
+      </c>
+      <c r="N107">
+        <v>-10834.39999999995</v>
+      </c>
+      <c r="O107">
+        <v>0.3057391304347826</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>30</v>
+      </c>
+      <c r="B108">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>40</v>
+      </c>
+      <c r="D108">
+        <v>1.2</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>350</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>40</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>17</v>
+      </c>
+      <c r="K108">
+        <v>30</v>
+      </c>
+      <c r="L108">
+        <v>9</v>
+      </c>
+      <c r="M108">
+        <v>-8232.799999999854</v>
+      </c>
+      <c r="N108">
+        <v>-13269.39999999997</v>
+      </c>
+      <c r="O108">
+        <v>0.3483870967741935</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>40</v>
+      </c>
+      <c r="D109">
+        <v>2.2</v>
+      </c>
+      <c r="E109">
+        <v>3.4</v>
+      </c>
+      <c r="F109">
+        <v>400</v>
+      </c>
+      <c r="G109">
+        <v>350</v>
+      </c>
+      <c r="H109">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>22</v>
+      </c>
+      <c r="K109">
+        <v>30</v>
+      </c>
+      <c r="L109">
+        <v>10</v>
+      </c>
+      <c r="M109">
+        <v>-8615.099999999929</v>
+      </c>
+      <c r="N109">
+        <v>-9973.699999999946</v>
+      </c>
+      <c r="O109">
+        <v>0.3846740373617994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110">
+        <v>20</v>
+      </c>
+      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <v>2.8</v>
+      </c>
+      <c r="E110">
+        <v>3.8</v>
+      </c>
+      <c r="F110">
+        <v>250</v>
+      </c>
+      <c r="G110">
+        <v>200</v>
+      </c>
+      <c r="H110">
+        <v>20</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>17</v>
+      </c>
+      <c r="K110">
+        <v>30</v>
+      </c>
+      <c r="L110">
+        <v>11</v>
+      </c>
+      <c r="M110">
+        <v>-8629.799999999956</v>
+      </c>
+      <c r="N110">
+        <v>-14814.19999999993</v>
+      </c>
+      <c r="O110">
+        <v>0.3562653562653563</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>40</v>
+      </c>
+      <c r="D111">
+        <v>2.8</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>300</v>
+      </c>
+      <c r="G111">
+        <v>250</v>
+      </c>
+      <c r="H111">
+        <v>20</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>15</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>11</v>
+      </c>
+      <c r="M111">
+        <v>-8685.199999999772</v>
+      </c>
+      <c r="N111">
+        <v>-13105.09999999996</v>
+      </c>
+      <c r="O111">
+        <v>0.2940156114483955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>60</v>
+      </c>
+      <c r="D112">
+        <v>1.6</v>
+      </c>
+      <c r="E112">
+        <v>1.4</v>
+      </c>
+      <c r="F112">
+        <v>200</v>
+      </c>
+      <c r="G112">
+        <v>250</v>
+      </c>
+      <c r="H112">
+        <v>80</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>23</v>
+      </c>
+      <c r="K112">
+        <v>30</v>
+      </c>
+      <c r="L112">
+        <v>11</v>
+      </c>
+      <c r="M112">
+        <v>-8865.09999999998</v>
+      </c>
+      <c r="N112">
+        <v>-9261.499999999982</v>
+      </c>
+      <c r="O112">
+        <v>0.3844162567952369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <v>28</v>
+      </c>
+      <c r="B113">
+        <v>40</v>
+      </c>
+      <c r="C113">
+        <v>60</v>
+      </c>
+      <c r="D113">
+        <v>3.2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>150</v>
+      </c>
+      <c r="G113">
+        <v>300</v>
+      </c>
+      <c r="H113">
+        <v>200</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>19</v>
+      </c>
+      <c r="K113">
+        <v>30</v>
+      </c>
+      <c r="L113">
+        <v>8</v>
+      </c>
+      <c r="M113">
+        <v>-8954.599999999893</v>
+      </c>
+      <c r="N113">
+        <v>-11890.49999999997</v>
+      </c>
+      <c r="O113">
+        <v>0.3674008810572687</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <v>46</v>
+      </c>
+      <c r="B114">
+        <v>40</v>
+      </c>
+      <c r="C114">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>300</v>
+      </c>
+      <c r="G114">
+        <v>200</v>
+      </c>
+      <c r="H114">
+        <v>180</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>17</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>11</v>
+      </c>
+      <c r="M114">
+        <v>-8999.999999999913</v>
+      </c>
+      <c r="N114">
+        <v>-13487.89999999995</v>
+      </c>
+      <c r="O114">
+        <v>0.3151715833835039</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <v>2.8</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>50</v>
+      </c>
+      <c r="G115">
+        <v>50</v>
+      </c>
+      <c r="H115">
+        <v>140</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>22</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>7</v>
+      </c>
+      <c r="M115">
+        <v>-9255.299999999959</v>
+      </c>
+      <c r="N115">
+        <v>-10057.69999999991</v>
+      </c>
+      <c r="O115">
+        <v>0.3623898139079334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <v>93</v>
+      </c>
+      <c r="B116">
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <v>60</v>
+      </c>
+      <c r="D116">
+        <v>2.8</v>
+      </c>
+      <c r="E116">
+        <v>1.6</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>300</v>
+      </c>
+      <c r="H116">
+        <v>180</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>16</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>10</v>
+      </c>
+      <c r="M116">
+        <v>-9639.799999999781</v>
+      </c>
+      <c r="N116">
+        <v>-12022.59999999998</v>
+      </c>
+      <c r="O116">
+        <v>0.2877652933832709</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>40</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>2.4</v>
+      </c>
+      <c r="F117">
+        <v>50</v>
+      </c>
+      <c r="G117">
+        <v>350</v>
+      </c>
+      <c r="H117">
+        <v>140</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>17</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>12</v>
+      </c>
+      <c r="M117">
+        <v>-9666.300000000119</v>
+      </c>
+      <c r="N117">
+        <v>-11681.20000000002</v>
+      </c>
+      <c r="O117">
+        <v>0.3393157599551318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <v>139</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>40</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>2.4</v>
+      </c>
+      <c r="F118">
+        <v>200</v>
+      </c>
+      <c r="G118">
+        <v>400</v>
+      </c>
+      <c r="H118">
+        <v>20</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>22</v>
+      </c>
+      <c r="K118">
+        <v>30</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>-9784.499999999989</v>
+      </c>
+      <c r="N118">
+        <v>-10916.29999999999</v>
+      </c>
+      <c r="O118">
+        <v>0.3554899064500246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>50</v>
+      </c>
+      <c r="C119">
+        <v>80</v>
+      </c>
+      <c r="D119">
+        <v>3.6</v>
+      </c>
+      <c r="E119">
+        <v>1.4</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>350</v>
+      </c>
+      <c r="H119">
+        <v>180</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>23</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>-9791.999999999964</v>
+      </c>
+      <c r="N119">
+        <v>-11865.49999999993</v>
+      </c>
+      <c r="O119">
+        <v>0.3639954853273138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>73</v>
+      </c>
+      <c r="B120">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>60</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>3.8</v>
+      </c>
+      <c r="F120">
+        <v>50</v>
+      </c>
+      <c r="G120">
+        <v>300</v>
+      </c>
+      <c r="H120">
+        <v>160</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>21</v>
+      </c>
+      <c r="K120">
+        <v>30</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120">
+        <v>-9909.999999999884</v>
+      </c>
+      <c r="N120">
+        <v>-10983.89999999986</v>
+      </c>
+      <c r="O120">
+        <v>0.2979546710889994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <v>65</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121">
+        <v>60</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>50</v>
+      </c>
+      <c r="G121">
+        <v>200</v>
+      </c>
+      <c r="H121">
+        <v>100</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>21</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>8</v>
+      </c>
+      <c r="M121">
+        <v>-9983.299999999996</v>
+      </c>
+      <c r="N121">
+        <v>-10565.79999999997</v>
+      </c>
+      <c r="O121">
+        <v>0.3162544169611308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <v>44</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <v>1.8</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>150</v>
+      </c>
+      <c r="H122">
+        <v>200</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>15</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>11</v>
+      </c>
+      <c r="M122">
+        <v>-10269.79999999996</v>
+      </c>
+      <c r="N122">
+        <v>-14829.90000000001</v>
+      </c>
+      <c r="O122">
+        <v>0.3496543778801843</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <v>75</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>40</v>
+      </c>
+      <c r="D123">
+        <v>3.6</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <v>200</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>19</v>
+      </c>
+      <c r="K123">
+        <v>30</v>
+      </c>
+      <c r="L123">
+        <v>7</v>
+      </c>
+      <c r="M123">
+        <v>-10312.1999999999</v>
+      </c>
+      <c r="N123">
+        <v>-12670.79999999996</v>
+      </c>
+      <c r="O123">
+        <v>0.3716249386352479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124">
+        <v>40</v>
+      </c>
+      <c r="B124">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124">
+        <v>1.4</v>
+      </c>
+      <c r="E124">
+        <v>3.2</v>
+      </c>
+      <c r="F124">
+        <v>400</v>
+      </c>
+      <c r="G124">
+        <v>250</v>
+      </c>
+      <c r="H124">
+        <v>100</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>22</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>7</v>
+      </c>
+      <c r="M124">
+        <v>-10687.7999999999</v>
+      </c>
+      <c r="N124">
+        <v>-14413.29999999987</v>
+      </c>
+      <c r="O124">
+        <v>0.3779411764705882</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125">
+        <v>82</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>60</v>
+      </c>
+      <c r="D125">
+        <v>1.8</v>
+      </c>
+      <c r="E125">
+        <v>1.8</v>
+      </c>
+      <c r="F125">
+        <v>300</v>
+      </c>
+      <c r="G125">
+        <v>150</v>
+      </c>
+      <c r="H125">
+        <v>60</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>20</v>
+      </c>
+      <c r="K125">
+        <v>30</v>
+      </c>
+      <c r="L125">
+        <v>12</v>
+      </c>
+      <c r="M125">
+        <v>-10805.99999999979</v>
+      </c>
+      <c r="N125">
+        <v>-12002.79999999981</v>
+      </c>
+      <c r="O125">
+        <v>0.3542970036219954</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126">
+        <v>32</v>
+      </c>
+      <c r="B126">
+        <v>40</v>
+      </c>
+      <c r="C126">
+        <v>40</v>
+      </c>
+      <c r="D126">
+        <v>1.6</v>
+      </c>
+      <c r="E126">
+        <v>2.2</v>
+      </c>
+      <c r="F126">
+        <v>150</v>
+      </c>
+      <c r="G126">
+        <v>150</v>
+      </c>
+      <c r="H126">
+        <v>160</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>22</v>
+      </c>
+      <c r="K126">
+        <v>30</v>
+      </c>
+      <c r="L126">
+        <v>11</v>
+      </c>
+      <c r="M126">
+        <v>-10812.79999999996</v>
+      </c>
+      <c r="N126">
+        <v>-12361.09999999995</v>
+      </c>
+      <c r="O126">
+        <v>0.3937321937321938</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127">
+        <v>61</v>
+      </c>
+      <c r="B127">
+        <v>30</v>
+      </c>
+      <c r="C127">
+        <v>80</v>
+      </c>
+      <c r="D127">
+        <v>1.6</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>50</v>
+      </c>
+      <c r="G127">
+        <v>400</v>
+      </c>
+      <c r="H127">
+        <v>140</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>19</v>
+      </c>
+      <c r="K127">
+        <v>30</v>
+      </c>
+      <c r="L127">
+        <v>12</v>
+      </c>
+      <c r="M127">
+        <v>-11497.29999999995</v>
+      </c>
+      <c r="N127">
+        <v>-11746.89999999993</v>
+      </c>
+      <c r="O127">
+        <v>0.3109243697478992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128">
+        <v>84</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>80</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>2.2</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+      <c r="G128">
+        <v>250</v>
+      </c>
+      <c r="H128">
+        <v>40</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>18</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>12</v>
+      </c>
+      <c r="M128">
+        <v>-11503.19999999991</v>
+      </c>
+      <c r="N128">
+        <v>-12495.59999999991</v>
+      </c>
+      <c r="O128">
+        <v>0.2877330126277811</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>20</v>
+      </c>
+      <c r="C129">
+        <v>80</v>
+      </c>
+      <c r="D129">
+        <v>3.8</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="G129">
+        <v>300</v>
+      </c>
+      <c r="H129">
+        <v>80</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>21</v>
+      </c>
+      <c r="K129">
+        <v>30</v>
+      </c>
+      <c r="L129">
+        <v>9</v>
+      </c>
+      <c r="M129">
+        <v>-11628.69999999987</v>
+      </c>
+      <c r="N129">
+        <v>-13361.69999999993</v>
+      </c>
+      <c r="O129">
+        <v>0.3549307253463733</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130">
+        <v>58</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>40</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>2.8</v>
+      </c>
+      <c r="F130">
+        <v>150</v>
+      </c>
+      <c r="G130">
+        <v>200</v>
+      </c>
+      <c r="H130">
+        <v>20</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>22</v>
+      </c>
+      <c r="K130">
+        <v>30</v>
+      </c>
+      <c r="L130">
+        <v>11</v>
+      </c>
+      <c r="M130">
+        <v>-12176.99999999995</v>
+      </c>
+      <c r="N130">
+        <v>-13441.59999999997</v>
+      </c>
+      <c r="O130">
+        <v>0.3903133903133903</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131">
+        <v>52</v>
+      </c>
+      <c r="B131">
+        <v>30</v>
+      </c>
+      <c r="C131">
+        <v>40</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1.2</v>
+      </c>
+      <c r="F131">
+        <v>50</v>
+      </c>
+      <c r="G131">
+        <v>250</v>
+      </c>
+      <c r="H131">
+        <v>160</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>20</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>12</v>
+      </c>
+      <c r="M131">
+        <v>-12531.89999999994</v>
+      </c>
+      <c r="N131">
+        <v>-13044.79999999993</v>
+      </c>
+      <c r="O131">
+        <v>0.3245614035087719</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132">
+        <v>33</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <v>2.6</v>
+      </c>
+      <c r="E132">
+        <v>2.6</v>
+      </c>
+      <c r="F132">
+        <v>350</v>
+      </c>
+      <c r="G132">
+        <v>250</v>
+      </c>
+      <c r="H132">
+        <v>100</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>17</v>
+      </c>
+      <c r="K132">
+        <v>30</v>
+      </c>
+      <c r="L132">
+        <v>10</v>
+      </c>
+      <c r="M132">
+        <v>-13125.79999999978</v>
+      </c>
+      <c r="N132">
+        <v>-18685.19999999988</v>
+      </c>
+      <c r="O132">
+        <v>0.3147410358565737</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>80</v>
+      </c>
+      <c r="D133">
+        <v>3.6</v>
+      </c>
+      <c r="E133">
+        <v>1.6</v>
+      </c>
+      <c r="F133">
+        <v>150</v>
+      </c>
+      <c r="G133">
+        <v>300</v>
+      </c>
+      <c r="H133">
+        <v>100</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>21</v>
+      </c>
+      <c r="K133">
+        <v>30</v>
+      </c>
+      <c r="L133">
+        <v>10</v>
+      </c>
+      <c r="M133">
+        <v>-13391.69999999983</v>
+      </c>
+      <c r="N133">
+        <v>-14774.89999999982</v>
+      </c>
+      <c r="O133">
+        <v>0.3427660422479075</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134">
+        <v>123</v>
+      </c>
+      <c r="B134">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>60</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>2.2</v>
+      </c>
+      <c r="F134">
+        <v>250</v>
+      </c>
+      <c r="G134">
+        <v>400</v>
+      </c>
+      <c r="H134">
+        <v>20</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>19</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>8</v>
+      </c>
+      <c r="M134">
+        <v>-13664.59999999992</v>
+      </c>
+      <c r="N134">
+        <v>-17333.39999999991</v>
+      </c>
+      <c r="O134">
+        <v>0.3411867364746946</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+      <c r="C135">
+        <v>60</v>
+      </c>
+      <c r="D135">
+        <v>1.2</v>
+      </c>
+      <c r="E135">
+        <v>1.4</v>
+      </c>
+      <c r="F135">
+        <v>150</v>
+      </c>
+      <c r="G135">
+        <v>300</v>
+      </c>
+      <c r="H135">
+        <v>120</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>21</v>
+      </c>
+      <c r="K135">
+        <v>30</v>
+      </c>
+      <c r="L135">
+        <v>7</v>
+      </c>
+      <c r="M135">
+        <v>-14594.99999999988</v>
+      </c>
+      <c r="N135">
+        <v>-16288.2999999999</v>
+      </c>
+      <c r="O135">
+        <v>0.357879234167894</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136">
+        <v>121</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>40</v>
+      </c>
+      <c r="D136">
+        <v>1.2</v>
+      </c>
+      <c r="E136">
+        <v>3.4</v>
+      </c>
+      <c r="F136">
+        <v>350</v>
+      </c>
+      <c r="G136">
+        <v>400</v>
+      </c>
+      <c r="H136">
+        <v>180</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>17</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>10</v>
+      </c>
+      <c r="M136">
+        <v>-14976.0999999999</v>
+      </c>
+      <c r="N136">
+        <v>-18326.09999999991</v>
+      </c>
+      <c r="O136">
+        <v>0.3079909414428987</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137">
+        <v>85</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+      <c r="C137">
+        <v>60</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1.8</v>
+      </c>
+      <c r="F137">
+        <v>300</v>
+      </c>
+      <c r="G137">
+        <v>300</v>
+      </c>
+      <c r="H137">
+        <v>140</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>17</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>10</v>
+      </c>
+      <c r="M137">
+        <v>-15493.19999999991</v>
+      </c>
+      <c r="N137">
+        <v>-18957.49999999991</v>
+      </c>
+      <c r="O137">
+        <v>0.3083144613393723</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>60</v>
+      </c>
+      <c r="D138">
+        <v>1.2</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>150</v>
+      </c>
+      <c r="G138">
+        <v>400</v>
+      </c>
+      <c r="H138">
+        <v>20</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>17</v>
+      </c>
+      <c r="K138">
+        <v>30</v>
+      </c>
+      <c r="L138">
+        <v>9</v>
+      </c>
+      <c r="M138">
+        <v>-15548.89999999985</v>
+      </c>
+      <c r="N138">
+        <v>-19190.39999999995</v>
+      </c>
+      <c r="O138">
+        <v>0.3130154177124417</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139">
+        <v>113</v>
+      </c>
+      <c r="B139">
+        <v>40</v>
+      </c>
+      <c r="C139">
+        <v>80</v>
+      </c>
+      <c r="D139">
+        <v>2.4</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>200</v>
+      </c>
+      <c r="G139">
+        <v>400</v>
+      </c>
+      <c r="H139">
+        <v>160</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>17</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>10</v>
+      </c>
+      <c r="M139">
+        <v>-15570.69999999992</v>
+      </c>
+      <c r="N139">
+        <v>-18126.29999999993</v>
+      </c>
+      <c r="O139">
+        <v>0.3068218558034271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140">
         <v>67</v>
       </c>
-      <c r="B70">
-        <v>40</v>
-      </c>
-      <c r="C70">
+      <c r="B140">
+        <v>40</v>
+      </c>
+      <c r="C140">
         <v>60</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
         <v>4</v>
       </c>
-      <c r="F70">
+      <c r="F140">
         <v>150</v>
       </c>
-      <c r="G70">
+      <c r="G140">
         <v>400</v>
       </c>
-      <c r="H70">
-        <v>100</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
+      <c r="H140">
+        <v>100</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
         <v>20</v>
       </c>
-      <c r="K70">
-        <v>30</v>
-      </c>
-      <c r="L70">
+      <c r="K140">
+        <v>30</v>
+      </c>
+      <c r="L140">
         <v>8</v>
       </c>
-      <c r="M70">
+      <c r="M140">
         <v>-16428.09999999988</v>
       </c>
-      <c r="N70">
+      <c r="N140">
         <v>-17556.39999999989</v>
       </c>
-      <c r="O70">
+      <c r="O140">
         <v>0.3434433541480821</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141">
+        <v>96</v>
+      </c>
+      <c r="B141">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>80</v>
+      </c>
+      <c r="D141">
+        <v>1.2</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>100</v>
+      </c>
+      <c r="G141">
+        <v>350</v>
+      </c>
+      <c r="H141">
+        <v>140</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>21</v>
+      </c>
+      <c r="K141">
+        <v>30</v>
+      </c>
+      <c r="L141">
+        <v>11</v>
+      </c>
+      <c r="M141">
+        <v>-17509.89999999981</v>
+      </c>
+      <c r="N141">
+        <v>-18869.59999999981</v>
+      </c>
+      <c r="O141">
+        <v>0.3278169014084507</v>
       </c>
     </row>
   </sheetData>
